--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Bảng số nhà</t>
+  </si>
+  <si>
+    <t>May bom nuoc chong nang</t>
+  </si>
+  <si>
+    <t>May tu dong bom nuoc tuoi cay</t>
+  </si>
+  <si>
+    <t>May tu dong trong cay</t>
+  </si>
+  <si>
+    <t>May tu dong nuoi ga</t>
   </si>
 </sst>
 </file>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +682,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>May tu dong nuoi ga</t>
+  </si>
+  <si>
+    <t>May tu dong tuoi nuoc khi troi nong</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +705,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="5" r:id="rId1"/>
     <sheet name="Covers" sheetId="6" r:id="rId2"/>
     <sheet name="Sản phẩm" sheetId="7" r:id="rId3"/>
+    <sheet name="Wiki" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +56,69 @@
   </si>
   <si>
     <t>May tu dong tuoi nuoc khi troi nong</t>
+  </si>
+  <si>
+    <t>Chăm sóc gà qua mạng</t>
+  </si>
+  <si>
+    <t>Máy theo dõi</t>
+  </si>
+  <si>
+    <t>Máy truyền tin RF</t>
+  </si>
+  <si>
+    <t>Dieu khien led qua RF</t>
+  </si>
+  <si>
+    <t>Dieu khien LED PWM</t>
+  </si>
+  <si>
+    <t>Mach dieu khien mat cuoi</t>
+  </si>
+  <si>
+    <t>Room đổi màu</t>
+  </si>
+  <si>
+    <t>May tu dong xa nuoc toilet</t>
+  </si>
+  <si>
+    <t>May câu cá tự động</t>
+  </si>
+  <si>
+    <t>Máy bắt chuột</t>
+  </si>
+  <si>
+    <t>Máy bắt muỗi</t>
+  </si>
+  <si>
+    <t>Công tắc từ xa.</t>
+  </si>
+  <si>
+    <t>Ngoi sao LED</t>
+  </si>
+  <si>
+    <t>Xe len cau thang</t>
+  </si>
+  <si>
+    <t>Đèn tự điều chỉnh ánh sáng</t>
+  </si>
+  <si>
+    <t>Dieu khien den LED bang bluetooth</t>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Basic knowledge</t>
+  </si>
+  <si>
+    <t>Trouble shooting</t>
   </si>
 </sst>
 </file>
@@ -647,15 +711,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,6 +774,125 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Trouble shooting</t>
+  </si>
+  <si>
+    <t>Điều khiển xe đồ chơi bằng smart phone</t>
+  </si>
+  <si>
+    <t>Rèm cửa thông minh, tự điều chỉnh ánh sáng</t>
+  </si>
+  <si>
+    <t>Màn hình mini LED</t>
   </si>
 </sst>
 </file>
@@ -711,10 +720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +863,21 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,10 +885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,8 +912,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
